--- a/paper_figures/Table3.xlsx
+++ b/paper_figures/Table3.xlsx
@@ -186,16 +186,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.80000000000000004</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D7">
-        <v>43.302068777382367</v>
+        <v>37.859808899695054</v>
       </c>
       <c r="E7">
-        <v>74.750535726547241</v>
+        <v>82.818418443202972</v>
       </c>
       <c r="F7">
-        <v>108.1141385165128</v>
+        <v>125.39828148755161</v>
       </c>
       <c r="G7">
         <v>14.77699875831604</v>
@@ -204,7 +204,7 @@
         <v>0.56530178264437925</v>
       </c>
       <c r="I7">
-        <v>0.1323604156809039</v>
+        <v>0.11590338104632469</v>
       </c>
     </row>
     <row r="8">
@@ -215,16 +215,16 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>2.2000000000000002</v>
+        <v>0.80000000000000004</v>
       </c>
       <c r="D8">
-        <v>37.859808899695054</v>
+        <v>43.302068777382367</v>
       </c>
       <c r="E8">
-        <v>82.818418443202972</v>
+        <v>74.750535726547241</v>
       </c>
       <c r="F8">
-        <v>125.39828148755161</v>
+        <v>108.1141385165128</v>
       </c>
       <c r="G8">
         <v>14.77699875831604</v>
@@ -233,7 +233,7 @@
         <v>0.56530178264437925</v>
       </c>
       <c r="I8">
-        <v>0.11590338104632469</v>
+        <v>0.1323604156809039</v>
       </c>
     </row>
     <row r="10">
@@ -255,19 +255,19 @@
         <v>24.05122048407793</v>
       </c>
       <c r="E11">
-        <v>91.863255858421326</v>
+        <v>73.061189293861389</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>104.88448143005371</v>
       </c>
       <c r="G11">
-        <v>50.858491063117981</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H11">
-        <v>0.31582518700861523</v>
+        <v>0.56530178264437925</v>
       </c>
       <c r="I11">
-        <v>0.42229643113943671</v>
+        <v>0.13589972852223869</v>
       </c>
     </row>
     <row r="12">
@@ -278,25 +278,25 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>10000</v>
+        <v>40000</v>
       </c>
       <c r="D12">
-        <v>32.753310091793544</v>
+        <v>60.896221503615379</v>
       </c>
       <c r="E12">
-        <v>84.416072428226471</v>
+        <v>82.818418443202972</v>
       </c>
       <c r="F12">
-        <v>99.987563761797816</v>
+        <v>125.39828148755161</v>
       </c>
       <c r="G12">
-        <v>30.398445725440983</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H12">
-        <v>0.41986936095389849</v>
+        <v>0.56530178264437925</v>
       </c>
       <c r="I12">
-        <v>0.26323988038672091</v>
+        <v>0.11590338104632469</v>
       </c>
     </row>
     <row r="13">
@@ -307,25 +307,25 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>40000</v>
+        <v>10000</v>
       </c>
       <c r="D13">
-        <v>60.896221503615379</v>
+        <v>32.753310091793544</v>
       </c>
       <c r="E13">
-        <v>52.950413048267365</v>
+        <v>74.750535726547241</v>
       </c>
       <c r="F13">
-        <v>98.409875414588228</v>
+        <v>108.1141385165128</v>
       </c>
       <c r="G13">
-        <v>7.7579247951507595</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H13">
-        <v>0.6966534165578504</v>
+        <v>0.56530178264437925</v>
       </c>
       <c r="I13">
-        <v>0.085695781837223206</v>
+        <v>0.1323604156809039</v>
       </c>
     </row>
     <row r="15">
@@ -347,19 +347,19 @@
         <v>35.237113639712341</v>
       </c>
       <c r="E16">
-        <v>82.871692061424255</v>
+        <v>73.061189293861389</v>
       </c>
       <c r="F16">
-        <v>99.949370189146563</v>
+        <v>104.88448143005371</v>
       </c>
       <c r="G16">
-        <v>31.406827569007874</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H16">
         <v>0.56530178264437925</v>
       </c>
       <c r="I16">
-        <v>0.28101128850392759</v>
+        <v>0.13589972852223869</v>
       </c>
     </row>
     <row r="17">
@@ -370,25 +370,25 @@
         <v>14</v>
       </c>
       <c r="C17">
-        <v>20000</v>
+        <v>25000</v>
       </c>
       <c r="D17">
-        <v>56.199649423360817</v>
+        <v>64.443092986941338</v>
       </c>
       <c r="E17">
-        <v>58.408021509647369</v>
+        <v>82.818418443202972</v>
       </c>
       <c r="F17">
-        <v>99.496405233036384</v>
+        <v>125.39828148755161</v>
       </c>
       <c r="G17">
-        <v>7.02147424221039</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H17">
         <v>0.56530178264437925</v>
       </c>
       <c r="I17">
-        <v>0.080699039862051097</v>
+        <v>0.11590338104632469</v>
       </c>
     </row>
     <row r="18">
@@ -399,25 +399,25 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>25000</v>
+        <v>20000</v>
       </c>
       <c r="D18">
-        <v>64.443092986941338</v>
+        <v>56.199649423360817</v>
       </c>
       <c r="E18">
-        <v>48.094181954860687</v>
+        <v>74.750535726547241</v>
       </c>
       <c r="F18">
-        <v>98.539015379819006</v>
+        <v>108.1141385165128</v>
       </c>
       <c r="G18">
-        <v>3.4640979766845699</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H18">
         <v>0.56530178264437925</v>
       </c>
       <c r="I18">
-        <v>0.055535121537978703</v>
+        <v>0.1323604156809039</v>
       </c>
     </row>
     <row r="20">
@@ -439,19 +439,19 @@
         <v>63.705366998910904</v>
       </c>
       <c r="E21">
-        <v>44.170930564403534</v>
+        <v>73.061189293861389</v>
       </c>
       <c r="F21">
-        <v>87.348351153460413</v>
+        <v>104.88448143005371</v>
       </c>
       <c r="G21">
-        <v>8.9161694049835205</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H21">
         <v>0.56530178264437925</v>
       </c>
       <c r="I21">
-        <v>0.1136401636009694</v>
+        <v>0.13589972852223869</v>
       </c>
     </row>
     <row r="22">
@@ -462,25 +462,25 @@
         <v>16</v>
       </c>
       <c r="C22">
-        <v>20000</v>
+        <v>30000</v>
       </c>
       <c r="D22">
-        <v>52.827712759375565</v>
+        <v>41.637365013360977</v>
       </c>
       <c r="E22">
-        <v>59.842934250831604</v>
+        <v>82.818418443202972</v>
       </c>
       <c r="F22">
-        <v>98.246058550747961</v>
+        <v>125.39828148755161</v>
       </c>
       <c r="G22">
-        <v>12.15278744697571</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H22">
         <v>0.56530178264437925</v>
       </c>
       <c r="I22">
-        <v>0.12621208194781311</v>
+        <v>0.11590338104632469</v>
       </c>
     </row>
     <row r="23">
@@ -491,25 +491,25 @@
         <v>16</v>
       </c>
       <c r="C23">
-        <v>30000</v>
+        <v>20000</v>
       </c>
       <c r="D23">
-        <v>41.637365013360977</v>
+        <v>52.827712759375565</v>
       </c>
       <c r="E23">
-        <v>78.726495325565338</v>
+        <v>74.750535726547241</v>
       </c>
       <c r="F23">
-        <v>99.99397288669239</v>
+        <v>108.1141385165128</v>
       </c>
       <c r="G23">
-        <v>18.36459398269653</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H23">
         <v>0.56530178264437925</v>
       </c>
       <c r="I23">
-        <v>0.16383715057051479</v>
+        <v>0.1323604156809039</v>
       </c>
     </row>
     <row r="25">
@@ -531,19 +531,19 @@
         <v>62.037807509303086</v>
       </c>
       <c r="E26">
-        <v>51.515931904315948</v>
+        <v>73.061189293861389</v>
       </c>
       <c r="F26">
-        <v>98.111645741896197</v>
+        <v>104.88448143005371</v>
       </c>
       <c r="G26">
-        <v>7.3884987831115705</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H26">
         <v>0.56530178264437925</v>
       </c>
       <c r="I26">
-        <v>0.088982602244035799</v>
+        <v>0.13589972852223869</v>
       </c>
     </row>
     <row r="27">
@@ -554,25 +554,25 @@
         <v>18</v>
       </c>
       <c r="C27">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="D27">
-        <v>51.174635693430901</v>
+        <v>38.374445125460632</v>
       </c>
       <c r="E27">
-        <v>64.743549048900604</v>
+        <v>82.818418443202972</v>
       </c>
       <c r="F27">
-        <v>99.685065312819049</v>
+        <v>125.39828148755161</v>
       </c>
       <c r="G27">
-        <v>11.82159900665283</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H27">
         <v>0.56530178264437925</v>
       </c>
       <c r="I27">
-        <v>0.1193430944574962</v>
+        <v>0.11590338104632469</v>
       </c>
     </row>
     <row r="28">
@@ -583,25 +583,25 @@
         <v>18</v>
       </c>
       <c r="C28">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>38.374445125460632</v>
+        <v>51.174635693430901</v>
       </c>
       <c r="E28">
-        <v>78.862072050571442</v>
+        <v>74.750535726547241</v>
       </c>
       <c r="F28">
-        <v>99.944260987368494</v>
+        <v>108.1141385165128</v>
       </c>
       <c r="G28">
-        <v>22.102432250976559</v>
+        <v>14.77699875831604</v>
       </c>
       <c r="H28">
         <v>0.56530178264437925</v>
       </c>
       <c r="I28">
-        <v>0.2000815373511681</v>
+        <v>0.1323604156809039</v>
       </c>
     </row>
   </sheetData>

--- a/paper_figures/Table3.xlsx
+++ b/paper_figures/Table3.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="19">
   <si>
     <t>CASE</t>
   </si>
@@ -113,9 +113,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:I28"/>
+  <dimension ref="A1:I28"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="2">
       <c r="A2" t="s">
         <v>8</v>
